--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.14818997040757</v>
+        <v>0.091959</v>
       </c>
       <c r="H2">
-        <v>1.14818997040757</v>
+        <v>0.275877</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.06282071922171414</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.06282071922171413</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.321606552144019</v>
+        <v>0.3922993333333333</v>
       </c>
       <c r="N2">
-        <v>0.321606552144019</v>
+        <v>1.176898</v>
       </c>
       <c r="O2">
-        <v>0.1119524666310818</v>
+        <v>0.1197958591217032</v>
       </c>
       <c r="P2">
-        <v>0.1119524666310818</v>
+        <v>0.1197958591217032</v>
       </c>
       <c r="Q2">
-        <v>0.3692654175891218</v>
+        <v>0.036075454394</v>
       </c>
       <c r="R2">
-        <v>0.3692654175891218</v>
+        <v>0.324679089546</v>
       </c>
       <c r="S2">
-        <v>0.1119524666310818</v>
+        <v>0.007525662029808538</v>
       </c>
       <c r="T2">
-        <v>0.1119524666310818</v>
+        <v>0.007525662029808539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.14818997040757</v>
+        <v>0.091959</v>
       </c>
       <c r="H3">
-        <v>1.14818997040757</v>
+        <v>0.275877</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.06282071922171414</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.06282071922171413</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.516032668004381</v>
+        <v>0.544463</v>
       </c>
       <c r="N3">
-        <v>0.516032668004381</v>
+        <v>1.633389</v>
       </c>
       <c r="O3">
-        <v>0.1796329386331594</v>
+        <v>0.1662618498246574</v>
       </c>
       <c r="P3">
-        <v>0.1796329386331594</v>
+        <v>0.1662618498246574</v>
       </c>
       <c r="Q3">
-        <v>0.5925035338052895</v>
+        <v>0.050068273017</v>
       </c>
       <c r="R3">
-        <v>0.5925035338052895</v>
+        <v>0.450614457153</v>
       </c>
       <c r="S3">
-        <v>0.1796329386331594</v>
+        <v>0.01044468898511761</v>
       </c>
       <c r="T3">
-        <v>0.1796329386331594</v>
+        <v>0.0104446889851176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.14818997040757</v>
+        <v>0.091959</v>
       </c>
       <c r="H4">
-        <v>1.14818997040757</v>
+        <v>0.275877</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.06282071922171414</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.06282071922171413</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.6619579616401</v>
+        <v>1.882823333333333</v>
       </c>
       <c r="N4">
-        <v>1.6619579616401</v>
+        <v>5.64847</v>
       </c>
       <c r="O4">
-        <v>0.5785339011359882</v>
+        <v>0.5749549377882933</v>
       </c>
       <c r="P4">
-        <v>0.5785339011359882</v>
+        <v>0.5749549377882933</v>
       </c>
       <c r="Q4">
-        <v>1.908243462794172</v>
+        <v>0.17314255091</v>
       </c>
       <c r="R4">
-        <v>1.908243462794172</v>
+        <v>1.55828295819</v>
       </c>
       <c r="S4">
-        <v>0.5785339011359882</v>
+        <v>0.0361190827119365</v>
       </c>
       <c r="T4">
-        <v>0.5785339011359882</v>
+        <v>0.03611908271193649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.14818997040757</v>
+        <v>0.091959</v>
       </c>
       <c r="H5">
-        <v>1.14818997040757</v>
+        <v>0.275877</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.06282071922171414</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.06282071922171413</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.373109082056608</v>
+        <v>0.4551463333333333</v>
       </c>
       <c r="N5">
-        <v>0.373109082056608</v>
+        <v>1.365439</v>
       </c>
       <c r="O5">
-        <v>0.1298806935997705</v>
+        <v>0.1389873532653461</v>
       </c>
       <c r="P5">
-        <v>0.1298806935997705</v>
+        <v>0.1389873532653461</v>
       </c>
       <c r="Q5">
-        <v>0.4284001058853723</v>
+        <v>0.04185480166699999</v>
       </c>
       <c r="R5">
-        <v>0.4284001058853723</v>
+        <v>0.376693215003</v>
       </c>
       <c r="S5">
-        <v>0.1298806935997705</v>
+        <v>0.008731285494851498</v>
       </c>
       <c r="T5">
-        <v>0.1298806935997705</v>
+        <v>0.008731285494851498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.371873333333334</v>
+      </c>
+      <c r="H6">
+        <v>4.115620000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9371792807782859</v>
+      </c>
+      <c r="J6">
+        <v>0.9371792807782858</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3922993333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.176898</v>
+      </c>
+      <c r="O6">
+        <v>0.1197958591217032</v>
+      </c>
+      <c r="P6">
+        <v>0.1197958591217032</v>
+      </c>
+      <c r="Q6">
+        <v>0.5381849940844445</v>
+      </c>
+      <c r="R6">
+        <v>4.843664946760001</v>
+      </c>
+      <c r="S6">
+        <v>0.1122701970918946</v>
+      </c>
+      <c r="T6">
+        <v>0.1122701970918947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.371873333333334</v>
+      </c>
+      <c r="H7">
+        <v>4.115620000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9371792807782859</v>
+      </c>
+      <c r="J7">
+        <v>0.9371792807782858</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.544463</v>
+      </c>
+      <c r="N7">
+        <v>1.633389</v>
+      </c>
+      <c r="O7">
+        <v>0.1662618498246574</v>
+      </c>
+      <c r="P7">
+        <v>0.1662618498246574</v>
+      </c>
+      <c r="Q7">
+        <v>0.7469342706866668</v>
+      </c>
+      <c r="R7">
+        <v>6.722408436180001</v>
+      </c>
+      <c r="S7">
+        <v>0.1558171608395398</v>
+      </c>
+      <c r="T7">
+        <v>0.1558171608395398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.371873333333334</v>
+      </c>
+      <c r="H8">
+        <v>4.115620000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9371792807782859</v>
+      </c>
+      <c r="J8">
+        <v>0.9371792807782858</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.882823333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.64847</v>
+      </c>
+      <c r="O8">
+        <v>0.5749549377882933</v>
+      </c>
+      <c r="P8">
+        <v>0.5749549377882933</v>
+      </c>
+      <c r="Q8">
+        <v>2.582995122377778</v>
+      </c>
+      <c r="R8">
+        <v>23.2469561014</v>
+      </c>
+      <c r="S8">
+        <v>0.5388358550763569</v>
+      </c>
+      <c r="T8">
+        <v>0.5388358550763568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.371873333333334</v>
+      </c>
+      <c r="H9">
+        <v>4.115620000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9371792807782859</v>
+      </c>
+      <c r="J9">
+        <v>0.9371792807782858</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4551463333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.365439</v>
+      </c>
+      <c r="O9">
+        <v>0.1389873532653461</v>
+      </c>
+      <c r="P9">
+        <v>0.1389873532653461</v>
+      </c>
+      <c r="Q9">
+        <v>0.6244031174644444</v>
+      </c>
+      <c r="R9">
+        <v>5.61962805718</v>
+      </c>
+      <c r="S9">
+        <v>0.1302560677704946</v>
+      </c>
+      <c r="T9">
+        <v>0.1302560677704946</v>
       </c>
     </row>
   </sheetData>
